--- a/Basic/Fin Statements Case.xlsx
+++ b/Basic/Fin Statements Case.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikeCarpenter\Dropbox\Carpe Diem Innovations\FPA Cert\AFP Cases\4 Class session\Class 4 - Applied FP&amp;A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academics\FPAC prep\Boot Camp Materials\Class 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFE8D78-397F-4CD7-8F91-A1834E369F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36DB45F-5C42-4114-AE46-E88F028817DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;L" sheetId="1" r:id="rId1"/>
     <sheet name="BS" sheetId="2" r:id="rId2"/>
     <sheet name="CF" sheetId="3" r:id="rId3"/>
-    <sheet name="P&amp;L - Answer" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="BS - Answer" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="CF - Answer" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="P&amp;L - Answer" sheetId="4" r:id="rId4"/>
+    <sheet name="BS - Answer" sheetId="5" r:id="rId5"/>
+    <sheet name="CF - Answer" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -897,21 +897,21 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>0</v>
       </c>
@@ -934,7 +934,7 @@
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
         <v>15</v>
       </c>
@@ -957,7 +957,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -974,12 +974,12 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -996,7 +996,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1007,7 +1007,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
@@ -1015,7 +1015,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1032,7 +1032,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1040,13 +1040,13 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1057,7 +1057,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
@@ -1065,13 +1065,13 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1088,7 +1088,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
@@ -1107,13 +1107,13 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1141,7 +1141,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>16</v>
       </c>
@@ -1149,13 +1149,13 @@
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
@@ -1180,11 +1180,11 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1195,7 +1195,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>16</v>
       </c>
@@ -1203,13 +1203,13 @@
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -1252,25 +1252,25 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" customWidth="1"/>
+    <col min="2" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="4.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1279,7 +1279,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>23</v>
       </c>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
         <v>15</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1331,7 +1331,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -1359,7 +1359,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -1410,7 +1410,7 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1421,7 +1421,7 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>31</v>
       </c>
@@ -1463,7 +1463,7 @@
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>32</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -1490,13 +1490,13 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -1507,7 +1507,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
@@ -1524,7 +1524,7 @@
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
@@ -1558,7 +1558,7 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>41</v>
       </c>
@@ -1575,7 +1575,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1586,7 +1586,7 @@
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>44</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>45</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -1642,7 +1642,7 @@
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -1651,7 +1651,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -1661,12 +1661,12 @@
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
         <v>50</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="20" t="s">
         <v>51</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>52</v>
       </c>
@@ -1710,7 +1710,7 @@
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>53</v>
       </c>
@@ -1720,7 +1720,7 @@
       <c r="F44" s="27"/>
       <c r="G44" s="27"/>
     </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="17" t="s">
         <v>54</v>
       </c>
@@ -1730,8 +1730,8 @@
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>55</v>
       </c>
@@ -1759,26 +1759,26 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="58.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1796875" style="34" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
@@ -1786,7 +1786,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>57</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
         <v>15</v>
       </c>
@@ -1810,12 +1810,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>59</v>
       </c>
@@ -1824,17 +1824,17 @@
       <c r="D8" s="36"/>
       <c r="E8" s="28"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
         <v>63</v>
       </c>
@@ -1843,12 +1843,12 @@
       <c r="D12" s="36"/>
       <c r="E12" s="28"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="29" t="s">
         <v>65</v>
       </c>
@@ -1857,7 +1857,7 @@
       <c r="D15" s="36"/>
       <c r="E15" s="28"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>66</v>
       </c>
@@ -1866,7 +1866,7 @@
       <c r="D16" s="36"/>
       <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>67</v>
       </c>
@@ -1875,7 +1875,7 @@
       <c r="D17" s="36"/>
       <c r="E17" s="28"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
         <v>68</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="D18" s="36"/>
       <c r="E18" s="28"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
         <v>69</v>
       </c>
@@ -1893,7 +1893,7 @@
       <c r="D19" s="36"/>
       <c r="E19" s="28"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
         <v>70</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="D20" s="36"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="31" t="s">
         <v>73</v>
       </c>
@@ -1911,12 +1911,12 @@
       <c r="D22" s="37"/>
       <c r="E22" s="28"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
         <v>75</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="D25" s="36"/>
       <c r="E25" s="28"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
         <v>76</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="D26" s="36"/>
       <c r="E26" s="28"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="29" t="s">
         <v>77</v>
       </c>
@@ -1943,7 +1943,7 @@
       <c r="D27" s="36"/>
       <c r="E27" s="28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="21" t="s">
         <v>78</v>
       </c>
@@ -1952,12 +1952,12 @@
       <c r="D29" s="37"/>
       <c r="E29" s="28"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>82</v>
       </c>
@@ -1966,7 +1966,7 @@
       <c r="D32" s="36"/>
       <c r="E32" s="28"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>84</v>
       </c>
@@ -1979,12 +1979,12 @@
       <c r="D33" s="38"/>
       <c r="E33" s="28"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="38"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="21" t="s">
         <v>86</v>
       </c>
@@ -1993,12 +1993,12 @@
       <c r="D35" s="37"/>
       <c r="E35" s="28"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="D38" s="36"/>
       <c r="E38" s="28"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -2016,7 +2016,7 @@
       <c r="D39" s="39"/>
       <c r="E39" s="28"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="D40" s="38"/>
       <c r="E40" s="28"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -2055,21 +2055,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -2077,7 +2077,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>0</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
         <v>15</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -2141,12 +2141,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>0.64336547699533853</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>0.35663452300466142</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>0.35663452300466142</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>0.24363946909582607</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -2261,13 +2261,13 @@
         <v>0.24363946909582607</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>0.11299505390883535</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
@@ -2313,13 +2313,13 @@
         <v>0.11299505390883535</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>2.6865459203643739E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>8.6129594705191617E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
@@ -2391,13 +2391,13 @@
         <v>8.6129594705191617E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>1.2169519268405508E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>7.3960075436786107E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>16</v>
       </c>
@@ -2469,13 +2469,13 @@
         <v>7.3960075436786107E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>2.2188022631035829E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
@@ -2518,11 +2518,11 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>5.1772052805750278E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>16</v>
       </c>
@@ -2568,13 +2568,13 @@
         <v>5.1772052805750278E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2626,25 +2626,25 @@
       <selection activeCell="A13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" customWidth="1"/>
+    <col min="2" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="4.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -2653,7 +2653,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>23</v>
       </c>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
         <v>15</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -2696,7 +2696,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2705,7 +2705,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>-699</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>5068</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>4858</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>31</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>32</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -2951,13 +2951,13 @@
         <v>8587</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -2968,7 +2968,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>-410</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>41</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>-963</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -3097,7 +3097,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>44</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>45</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>4858.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>5274.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -3178,7 +3178,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -3203,12 +3203,12 @@
         <v>5927.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
         <v>50</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="20" t="s">
         <v>51</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>52</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>53</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>2659.8999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="17" t="s">
         <v>54</v>
       </c>
@@ -3329,8 +3329,8 @@
         <v>8587.4000000000015</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>55</v>
       </c>
@@ -3373,26 +3373,26 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="58.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1796875" style="34" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
@@ -3400,7 +3400,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>57</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
         <v>15</v>
       </c>
@@ -3424,12 +3424,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>59</v>
       </c>
@@ -3446,17 +3446,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
         <v>63</v>
       </c>
@@ -3473,12 +3473,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="29" t="s">
         <v>65</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>66</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>67</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
         <v>68</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
         <v>69</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
         <v>70</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="31" t="s">
         <v>73</v>
       </c>
@@ -3597,12 +3597,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>75</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
         <v>76</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="29" t="s">
         <v>77</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="21" t="s">
         <v>78</v>
       </c>
@@ -3670,12 +3670,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>82</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>84</v>
       </c>
@@ -3707,12 +3707,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="38"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="21" t="s">
         <v>86</v>
       </c>
@@ -3729,12 +3729,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>91</v>
       </c>
